--- a/DMSNewVSale_2025-11-23_16-54.xlsx
+++ b/DMSNewVSale_2025-11-23_16-54.xlsx
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>5.0000</t>
+  </si>
+  <si>
+    <t>WHITE MEANS WHITE FACIAL WASH 200 ML</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
@@ -2027,7 +2036,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2037,11 +2046,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>15</v>
@@ -2053,20 +2062,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2093,7 +2102,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,7 +2168,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2176,7 +2185,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2206,10 +2215,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2235,11 +2244,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>101</v>
@@ -2268,11 +2277,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>101</v>
@@ -2284,14 +2293,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2301,14 +2310,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2317,14 +2326,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2334,51 +2343,84 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>137</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>138</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>80</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>23</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" ht="26.25" customHeight="1">
-      <c r="N46" s="13">
-        <v>2975.1149999999998</v>
-      </c>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>136</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>137</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>138</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" ht="26.25" customHeight="1">
+      <c r="N47" s="13">
+        <v>3205.1149999999998</v>
+      </c>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>139</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>140</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>141</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2582,10 +2624,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
